--- a/EC/Train Runs 2016-05-19 (FRA Format).xlsx
+++ b/EC/Train Runs 2016-05-19 (FRA Format).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13020"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13020" firstSheet="9" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Weekly Summary" sheetId="15" r:id="rId1"/>
@@ -36,10 +36,6 @@
     <externalReference r:id="rId20"/>
     <externalReference r:id="rId21"/>
     <externalReference r:id="rId22"/>
-    <externalReference r:id="rId23"/>
-    <externalReference r:id="rId24"/>
-    <externalReference r:id="rId25"/>
-    <externalReference r:id="rId26"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'2016-05-06 Train Runs'!$A$2:$H$2</definedName>
@@ -361,7 +357,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4282" uniqueCount="2238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4282" uniqueCount="2239">
   <si>
     <t>Train ID</t>
   </si>
@@ -7075,6 +7071,9 @@
   </si>
   <si>
     <t>4041/4042</t>
+  </si>
+  <si>
+    <t>Onboard entered a failsafe state that caused the dispatch system to cut it out</t>
   </si>
 </sst>
 </file>
@@ -7560,6 +7559,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -7575,73 +7575,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="476">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="437">
     <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -7663,755 +7606,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -8552,6 +7746,34 @@
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -10658,7 +9880,147 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFFF00"/>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -10693,7 +10055,49 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -10791,7 +10195,35 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -10889,7 +10321,301 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -11032,92 +10758,8 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Train Runs"/>
-      <sheetName val="Enforcements"/>
-      <sheetName val="Missing Trips"/>
-      <sheetName val="Trips&amp;Operators"/>
-      <sheetName val="Variables"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink7.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Train Runs"/>
-      <sheetName val="Enforcements"/>
-      <sheetName val="Missing Trips"/>
-      <sheetName val="Trips&amp;Operators"/>
-      <sheetName val="Variables"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink8.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Train Runs"/>
-      <sheetName val="Enforcements"/>
-      <sheetName val="Missing Trips"/>
-      <sheetName val="Trips&amp;Operators"/>
-      <sheetName val="Variables"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink9.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Train Runs"/>
-      <sheetName val="Enforcements"/>
-      <sheetName val="Missing Trips"/>
-      <sheetName val="Trips&amp;Operators"/>
-      <sheetName val="Variables"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Denver Train Runs 04122016_2" connectionId="17" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Denver Train Runs 04122016" connectionId="14" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
@@ -11153,11 +10795,11 @@
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Denver Train Runs 04122016_1" connectionId="16" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Denver Train Runs 04122016_2" connectionId="17" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Denver Train Runs 04122016" connectionId="14" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Denver Train Runs 04122016_1" connectionId="16" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
@@ -11452,7 +11094,7 @@
   </sheetPr>
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
@@ -11507,7 +11149,7 @@
       <c r="B3" s="43">
         <v>42509</v>
       </c>
-      <c r="C3" s="75">
+      <c r="C3" s="70">
         <f>SUM('Daily Summary'!C10:C16)</f>
         <v>911</v>
       </c>
@@ -11551,15 +11193,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:65" ht="57.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="72" t="str">
+      <c r="A1" s="73" t="str">
         <f>"Eagle P3 System Performance - "&amp;TEXT(J3,"YYYY-MM-DD")</f>
         <v>Eagle P3 System Performance - 2016-05-10</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
     </row>
     <row r="2" spans="1:65" s="5" customFormat="1" ht="69" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
@@ -11668,11 +11310,11 @@
         <v>42500</v>
       </c>
       <c r="K3" s="21"/>
-      <c r="L3" s="73" t="s">
+      <c r="L3" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="M3" s="73"/>
-      <c r="N3" s="74"/>
+      <c r="M3" s="74"/>
+      <c r="N3" s="75"/>
     </row>
     <row r="4" spans="1:65" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
@@ -15001,42 +14643,42 @@
     <mergeCell ref="L3:N3"/>
   </mergeCells>
   <conditionalFormatting sqref="A144:G171 C3:D143 F3:G143">
-    <cfRule type="expression" dxfId="365" priority="10">
+    <cfRule type="expression" dxfId="254" priority="10">
       <formula>#REF!&gt;#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="364" priority="11">
+    <cfRule type="expression" dxfId="253" priority="11">
       <formula>#REF!&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="363" priority="12">
+    <cfRule type="expression" dxfId="252" priority="12">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B85 A3:B84 A86:B143 E3:E143">
-    <cfRule type="expression" dxfId="362" priority="8">
+    <cfRule type="expression" dxfId="251" priority="8">
       <formula>$P3&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="361" priority="9">
+    <cfRule type="expression" dxfId="250" priority="9">
       <formula>$O3&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B85:D85 A3:D84 A86:D143 F3:G143">
-    <cfRule type="expression" dxfId="360" priority="6">
+    <cfRule type="expression" dxfId="249" priority="6">
       <formula>NOT(ISBLANK($G3))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A85">
-    <cfRule type="expression" dxfId="359" priority="3">
+    <cfRule type="expression" dxfId="248" priority="3">
       <formula>#REF!&gt;#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="358" priority="4">
+    <cfRule type="expression" dxfId="247" priority="4">
       <formula>#REF!&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="357" priority="5">
+    <cfRule type="expression" dxfId="246" priority="5">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A85">
-    <cfRule type="expression" dxfId="356" priority="2">
+    <cfRule type="expression" dxfId="245" priority="2">
       <formula>NOT(ISBLANK($G85))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15081,8 +14723,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BM162"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F1"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="G103" sqref="G103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15103,15 +14745,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:65" ht="57.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="72" t="str">
+      <c r="A1" s="73" t="str">
         <f>"Eagle P3 System Performance - "&amp;TEXT(J3,"YYYY-MM-DD")</f>
         <v>Eagle P3 System Performance - 2016-05-13</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
     </row>
     <row r="2" spans="1:65" s="5" customFormat="1" ht="69" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
@@ -15220,11 +14862,11 @@
         <v>42503</v>
       </c>
       <c r="K3" s="21"/>
-      <c r="L3" s="73" t="s">
+      <c r="L3" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="M3" s="73"/>
-      <c r="N3" s="74"/>
+      <c r="M3" s="74"/>
+      <c r="N3" s="75"/>
     </row>
     <row r="4" spans="1:65" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
@@ -17431,7 +17073,7 @@
         <v>2.733796297252411E-2</v>
       </c>
       <c r="G103" s="10" t="s">
-        <v>1375</v>
+        <v>2238</v>
       </c>
     </row>
     <row r="104" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -18509,52 +18151,68 @@
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="L3:N3"/>
   </mergeCells>
-  <conditionalFormatting sqref="C3:G162">
-    <cfRule type="expression" dxfId="353" priority="33">
+  <conditionalFormatting sqref="C3:G102 C104:G162 C103:F103">
+    <cfRule type="expression" dxfId="242" priority="37">
       <formula>#REF!&gt;#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="352" priority="34">
+    <cfRule type="expression" dxfId="241" priority="38">
       <formula>#REF!&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="351" priority="35">
+    <cfRule type="expression" dxfId="240" priority="39">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A3:G162">
-    <cfRule type="expression" dxfId="350" priority="29">
+  <conditionalFormatting sqref="A3:G102 A104:G162 A103:F103">
+    <cfRule type="expression" dxfId="239" priority="33">
       <formula>NOT(ISBLANK($G3))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:B5 A89:B90 A103:B103 A121:B121 A113:B113">
-    <cfRule type="expression" dxfId="349" priority="54">
+    <cfRule type="expression" dxfId="238" priority="58">
       <formula>$P4&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="348" priority="55">
+    <cfRule type="expression" dxfId="237" priority="59">
       <formula>$O4&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6:B87 A91:B101 A124:B162 A104:B111 A114:B119">
-    <cfRule type="expression" dxfId="347" priority="69">
+    <cfRule type="expression" dxfId="236" priority="73">
       <formula>$P8&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="346" priority="70">
+    <cfRule type="expression" dxfId="235" priority="74">
       <formula>$O8&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A88:B88 A102:B102 A120:B120 A122:B123">
-    <cfRule type="expression" dxfId="345" priority="87">
+    <cfRule type="expression" dxfId="234" priority="91">
       <formula>#REF!&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="344" priority="88">
+    <cfRule type="expression" dxfId="233" priority="92">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A112:B112">
-    <cfRule type="expression" dxfId="343" priority="109">
+    <cfRule type="expression" dxfId="232" priority="113">
       <formula>#REF!&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="342" priority="110">
+    <cfRule type="expression" dxfId="231" priority="114">
       <formula>#REF!&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G103">
+    <cfRule type="expression" dxfId="7" priority="2">
+      <formula>#REF!&gt;#REF!</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="3">
+      <formula>#REF!&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="4">
+      <formula>#REF!&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G103">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>NOT(ISBLANK($G103))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18563,7 +18221,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="58" id="{3D44904B-268D-4E09-8D46-808BAF6574AF}">
+          <x14:cfRule type="expression" priority="62" id="{3D44904B-268D-4E09-8D46-808BAF6574AF}">
             <xm:f>$N4&gt;'[Train Runs and Enforcements 2016-05-08.xlsx]Variables'!#REF!</xm:f>
             <x14:dxf>
               <fill>
@@ -18576,7 +18234,7 @@
           <xm:sqref>A3:B5 A89:B90 A103:B103 A121:B121 A113:B113</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="72" id="{3D44904B-268D-4E09-8D46-808BAF6574AF}">
+          <x14:cfRule type="expression" priority="76" id="{3D44904B-268D-4E09-8D46-808BAF6574AF}">
             <xm:f>$N8&gt;'[Train Runs and Enforcements 2016-05-08.xlsx]Variables'!#REF!</xm:f>
             <x14:dxf>
               <fill>
@@ -18589,7 +18247,7 @@
           <xm:sqref>A6:B87 A91:B101 A124:B162 A104:B111 A114:B119</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="94" id="{3D44904B-268D-4E09-8D46-808BAF6574AF}">
+          <x14:cfRule type="expression" priority="98" id="{3D44904B-268D-4E09-8D46-808BAF6574AF}">
             <xm:f>#REF!&gt;'[Train Runs and Enforcements 2016-05-08.xlsx]Variables'!#REF!</xm:f>
             <x14:dxf>
               <fill>
@@ -18602,7 +18260,7 @@
           <xm:sqref>A88:B88 A102:B102 A120:B120 A122:B123</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="116" id="{3D44904B-268D-4E09-8D46-808BAF6574AF}">
+          <x14:cfRule type="expression" priority="120" id="{3D44904B-268D-4E09-8D46-808BAF6574AF}">
             <xm:f>#REF!&gt;'[Train Runs and Enforcements 2016-05-08.xlsx]Variables'!#REF!</xm:f>
             <x14:dxf>
               <fill>
@@ -18646,15 +18304,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:65" ht="57.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="72" t="str">
+      <c r="A1" s="73" t="str">
         <f>"Eagle P3 System Performance - "&amp;TEXT(J3,"YYYY-MM-DD")</f>
         <v>Eagle P3 System Performance - 2016-05-14</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
     </row>
     <row r="2" spans="1:65" s="5" customFormat="1" ht="69" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
@@ -18761,11 +18419,11 @@
         <v>42504</v>
       </c>
       <c r="K3" s="21"/>
-      <c r="L3" s="73" t="s">
+      <c r="L3" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="M3" s="73"/>
-      <c r="N3" s="74"/>
+      <c r="M3" s="74"/>
+      <c r="N3" s="75"/>
     </row>
     <row r="4" spans="1:65" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
@@ -22112,26 +21770,26 @@
     <mergeCell ref="L3:N3"/>
   </mergeCells>
   <conditionalFormatting sqref="A165:G169 C3:G164">
-    <cfRule type="expression" dxfId="337" priority="25">
+    <cfRule type="expression" dxfId="226" priority="25">
       <formula>#REF!&gt;#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="336" priority="26">
+    <cfRule type="expression" dxfId="225" priority="26">
       <formula>#REF!&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="335" priority="27">
+    <cfRule type="expression" dxfId="224" priority="27">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:B164">
-    <cfRule type="expression" dxfId="334" priority="23">
+    <cfRule type="expression" dxfId="223" priority="23">
       <formula>$P3&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="333" priority="24">
+    <cfRule type="expression" dxfId="222" priority="24">
       <formula>$O3&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:G164">
-    <cfRule type="expression" dxfId="332" priority="21">
+    <cfRule type="expression" dxfId="221" priority="21">
       <formula>NOT(ISBLANK($G3))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -22185,15 +21843,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:65" ht="57.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="72" t="str">
+      <c r="A1" s="73" t="str">
         <f>"Eagle P3 System Performance - "&amp;TEXT(J3,"YYYY-MM-DD")</f>
         <v>Eagle P3 System Performance - 2016-05-15</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
     </row>
     <row r="2" spans="1:65" s="5" customFormat="1" ht="69" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
@@ -22300,11 +21958,11 @@
         <v>42505</v>
       </c>
       <c r="K3" s="21"/>
-      <c r="L3" s="73" t="s">
+      <c r="L3" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="M3" s="73"/>
-      <c r="N3" s="74"/>
+      <c r="M3" s="74"/>
+      <c r="N3" s="75"/>
     </row>
     <row r="4" spans="1:65" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
@@ -25543,82 +25201,82 @@
     <mergeCell ref="L3:N3"/>
   </mergeCells>
   <conditionalFormatting sqref="A155:G159 C3:G154">
-    <cfRule type="expression" dxfId="330" priority="5">
+    <cfRule type="expression" dxfId="219" priority="5">
       <formula>#REF!&gt;#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="329" priority="6">
+    <cfRule type="expression" dxfId="218" priority="6">
       <formula>#REF!&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="328" priority="7">
+    <cfRule type="expression" dxfId="217" priority="7">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:B6">
-    <cfRule type="expression" dxfId="327" priority="3">
+    <cfRule type="expression" dxfId="216" priority="3">
       <formula>$P3&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="326" priority="4">
+    <cfRule type="expression" dxfId="215" priority="4">
       <formula>$O3&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:G154">
-    <cfRule type="expression" dxfId="325" priority="1">
+    <cfRule type="expression" dxfId="214" priority="1">
       <formula>NOT(ISBLANK($G3))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27:B110">
-    <cfRule type="expression" dxfId="324" priority="141">
+    <cfRule type="expression" dxfId="213" priority="141">
       <formula>$P30&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="323" priority="142">
+    <cfRule type="expression" dxfId="212" priority="142">
       <formula>$O30&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7:B26">
-    <cfRule type="expression" dxfId="322" priority="153">
+    <cfRule type="expression" dxfId="211" priority="153">
       <formula>$P9&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="321" priority="154">
+    <cfRule type="expression" dxfId="210" priority="154">
       <formula>$O9&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A111:B128">
-    <cfRule type="expression" dxfId="320" priority="166">
+    <cfRule type="expression" dxfId="209" priority="166">
       <formula>$P115&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="319" priority="167">
+    <cfRule type="expression" dxfId="208" priority="167">
       <formula>$O115&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A129:B131">
-    <cfRule type="expression" dxfId="318" priority="180">
+    <cfRule type="expression" dxfId="207" priority="180">
       <formula>$P136&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="317" priority="181">
+    <cfRule type="expression" dxfId="206" priority="181">
       <formula>$O136&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A132:B132">
-    <cfRule type="expression" dxfId="316" priority="194">
+    <cfRule type="expression" dxfId="205" priority="194">
       <formula>$P140&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="315" priority="195">
+    <cfRule type="expression" dxfId="204" priority="195">
       <formula>$O140&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A133:B133">
-    <cfRule type="expression" dxfId="314" priority="208">
+    <cfRule type="expression" dxfId="203" priority="208">
       <formula>$P142&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="313" priority="209">
+    <cfRule type="expression" dxfId="202" priority="209">
       <formula>$O142&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A134:B154">
-    <cfRule type="expression" dxfId="312" priority="222">
+    <cfRule type="expression" dxfId="201" priority="222">
       <formula>$P144&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="311" priority="223">
+    <cfRule type="expression" dxfId="200" priority="223">
       <formula>$O144&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25763,15 +25421,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:65" ht="57.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="72" t="str">
+      <c r="A1" s="73" t="str">
         <f>"Eagle P3 System Performance - "&amp;TEXT(J3,"YYYY-MM-DD")</f>
         <v>Eagle P3 System Performance - 2016-05-16</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
     </row>
     <row r="2" spans="1:65" s="5" customFormat="1" ht="69" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
@@ -25880,11 +25538,11 @@
         <v>42506</v>
       </c>
       <c r="K3" s="21"/>
-      <c r="L3" s="73" t="s">
+      <c r="L3" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="M3" s="73"/>
-      <c r="N3" s="74"/>
+      <c r="M3" s="74"/>
+      <c r="N3" s="75"/>
     </row>
     <row r="4" spans="1:65" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
@@ -29249,98 +28907,98 @@
     <mergeCell ref="L3:N3"/>
   </mergeCells>
   <conditionalFormatting sqref="A153:G157 C3:G152">
-    <cfRule type="expression" dxfId="302" priority="5">
+    <cfRule type="expression" dxfId="191" priority="5">
       <formula>#REF!&gt;#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="301" priority="6">
+    <cfRule type="expression" dxfId="190" priority="6">
       <formula>#REF!&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="300" priority="7">
+    <cfRule type="expression" dxfId="189" priority="7">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:B6">
-    <cfRule type="expression" dxfId="299" priority="3">
+    <cfRule type="expression" dxfId="188" priority="3">
       <formula>$P3&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="298" priority="4">
+    <cfRule type="expression" dxfId="187" priority="4">
       <formula>$O3&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:G152">
-    <cfRule type="expression" dxfId="297" priority="1">
+    <cfRule type="expression" dxfId="186" priority="1">
       <formula>NOT(ISBLANK($G3))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27:B110 A121:B123">
-    <cfRule type="expression" dxfId="296" priority="8">
+    <cfRule type="expression" dxfId="185" priority="8">
       <formula>$P30&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="295" priority="9">
+    <cfRule type="expression" dxfId="184" priority="9">
       <formula>$O30&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7:B26">
-    <cfRule type="expression" dxfId="294" priority="11">
+    <cfRule type="expression" dxfId="183" priority="11">
       <formula>$P9&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="293" priority="12">
+    <cfRule type="expression" dxfId="182" priority="12">
       <formula>$O9&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A111:B119 A124:B127">
-    <cfRule type="expression" dxfId="292" priority="14">
+    <cfRule type="expression" dxfId="181" priority="14">
       <formula>$P115&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="291" priority="15">
+    <cfRule type="expression" dxfId="180" priority="15">
       <formula>$O115&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A128:B130">
-    <cfRule type="expression" dxfId="290" priority="17">
+    <cfRule type="expression" dxfId="179" priority="17">
       <formula>$P134&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="289" priority="18">
+    <cfRule type="expression" dxfId="178" priority="18">
       <formula>$O134&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A131:B131">
-    <cfRule type="expression" dxfId="288" priority="20">
+    <cfRule type="expression" dxfId="177" priority="20">
       <formula>$P138&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="287" priority="21">
+    <cfRule type="expression" dxfId="176" priority="21">
       <formula>$O138&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A132:B132">
-    <cfRule type="expression" dxfId="286" priority="23">
+    <cfRule type="expression" dxfId="175" priority="23">
       <formula>$P140&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="285" priority="24">
+    <cfRule type="expression" dxfId="174" priority="24">
       <formula>$O140&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A134:B152">
-    <cfRule type="expression" dxfId="284" priority="26">
+    <cfRule type="expression" dxfId="173" priority="26">
       <formula>$P144&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="283" priority="27">
+    <cfRule type="expression" dxfId="172" priority="27">
       <formula>$O144&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A120:B120">
-    <cfRule type="expression" dxfId="282" priority="240">
+    <cfRule type="expression" dxfId="171" priority="240">
       <formula>#REF!&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="281" priority="241">
+    <cfRule type="expression" dxfId="170" priority="241">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A133:B133">
-    <cfRule type="expression" dxfId="280" priority="256">
+    <cfRule type="expression" dxfId="169" priority="256">
       <formula>$P142&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="279" priority="257">
+    <cfRule type="expression" dxfId="168" priority="257">
       <formula>$O142&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29524,15 +29182,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:65" ht="57.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="72" t="str">
+      <c r="A1" s="73" t="str">
         <f>"Eagle P3 System Performance - "&amp;TEXT(J3,"YYYY-MM-DD")</f>
         <v>Eagle P3 System Performance - 2016-05-17</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
     </row>
     <row r="2" spans="1:65" s="5" customFormat="1" ht="69" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
@@ -29641,11 +29299,11 @@
         <v>42507</v>
       </c>
       <c r="K3" s="21"/>
-      <c r="L3" s="73" t="s">
+      <c r="L3" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="M3" s="73"/>
-      <c r="N3" s="74"/>
+      <c r="M3" s="74"/>
+      <c r="N3" s="75"/>
     </row>
     <row r="4" spans="1:65" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
@@ -33088,122 +32746,122 @@
     <mergeCell ref="L3:N3"/>
   </mergeCells>
   <conditionalFormatting sqref="A149:G153 C3:G148">
-    <cfRule type="expression" dxfId="267" priority="5">
+    <cfRule type="expression" dxfId="156" priority="5">
       <formula>#REF!&gt;#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="266" priority="6">
+    <cfRule type="expression" dxfId="155" priority="6">
       <formula>#REF!&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="265" priority="7">
+    <cfRule type="expression" dxfId="154" priority="7">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:B6">
-    <cfRule type="expression" dxfId="264" priority="3">
+    <cfRule type="expression" dxfId="153" priority="3">
       <formula>$P3&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="263" priority="4">
+    <cfRule type="expression" dxfId="152" priority="4">
       <formula>$O3&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:G148">
-    <cfRule type="expression" dxfId="262" priority="1">
+    <cfRule type="expression" dxfId="151" priority="1">
       <formula>NOT(ISBLANK($G3))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A117:B119 A27:B41 A103:B106 A45:B45 A49:B99">
-    <cfRule type="expression" dxfId="261" priority="8">
+    <cfRule type="expression" dxfId="150" priority="8">
       <formula>$P30&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="260" priority="9">
+    <cfRule type="expression" dxfId="149" priority="9">
       <formula>$O30&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7:B26 A43:B44 A101:B102">
-    <cfRule type="expression" dxfId="259" priority="11">
+    <cfRule type="expression" dxfId="148" priority="11">
       <formula>$P9&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="258" priority="12">
+    <cfRule type="expression" dxfId="147" priority="12">
       <formula>$O9&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A107:B115 A120:B123">
-    <cfRule type="expression" dxfId="257" priority="14">
+    <cfRule type="expression" dxfId="146" priority="14">
       <formula>$P111&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="256" priority="15">
+    <cfRule type="expression" dxfId="145" priority="15">
       <formula>$O111&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A124:B126">
-    <cfRule type="expression" dxfId="255" priority="17">
+    <cfRule type="expression" dxfId="144" priority="17">
       <formula>$P130&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="254" priority="18">
+    <cfRule type="expression" dxfId="143" priority="18">
       <formula>$O130&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A127:B127">
-    <cfRule type="expression" dxfId="253" priority="20">
+    <cfRule type="expression" dxfId="142" priority="20">
       <formula>$P134&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="252" priority="21">
+    <cfRule type="expression" dxfId="141" priority="21">
       <formula>$O134&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A128:B128">
-    <cfRule type="expression" dxfId="251" priority="23">
+    <cfRule type="expression" dxfId="140" priority="23">
       <formula>$P136&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="250" priority="24">
+    <cfRule type="expression" dxfId="139" priority="24">
       <formula>$O136&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A130:B148">
-    <cfRule type="expression" dxfId="249" priority="26">
+    <cfRule type="expression" dxfId="138" priority="26">
       <formula>$P140&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="248" priority="27">
+    <cfRule type="expression" dxfId="137" priority="27">
       <formula>$O140&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A116:B116">
-    <cfRule type="expression" dxfId="247" priority="29">
+    <cfRule type="expression" dxfId="136" priority="29">
       <formula>#REF!&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="246" priority="30">
+    <cfRule type="expression" dxfId="135" priority="30">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A129:B129">
-    <cfRule type="expression" dxfId="245" priority="33">
+    <cfRule type="expression" dxfId="134" priority="33">
       <formula>$P138&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="244" priority="34">
+    <cfRule type="expression" dxfId="133" priority="34">
       <formula>$O138&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A42:B42 A100:B100">
-    <cfRule type="expression" dxfId="243" priority="275">
+    <cfRule type="expression" dxfId="132" priority="275">
       <formula>#REF!&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="242" priority="276">
+    <cfRule type="expression" dxfId="131" priority="276">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A48:B48">
-    <cfRule type="expression" dxfId="241" priority="295">
+    <cfRule type="expression" dxfId="130" priority="295">
       <formula>$P49&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="240" priority="296">
+    <cfRule type="expression" dxfId="129" priority="296">
       <formula>$O49&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A46:B47">
-    <cfRule type="expression" dxfId="239" priority="297">
+    <cfRule type="expression" dxfId="128" priority="297">
       <formula>#REF!&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="238" priority="298">
+    <cfRule type="expression" dxfId="127" priority="298">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -33426,15 +33084,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:65" ht="57.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="72" t="str">
+      <c r="A1" s="73" t="str">
         <f>"Eagle P3 System Performance - "&amp;TEXT(J3,"YYYY-MM-DD")</f>
         <v>Eagle P3 System Performance - 2016-05-18</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
     </row>
     <row r="2" spans="1:65" s="5" customFormat="1" ht="69" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
@@ -33543,11 +33201,11 @@
         <v>42508</v>
       </c>
       <c r="K3" s="21"/>
-      <c r="L3" s="73" t="s">
+      <c r="L3" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="M3" s="73"/>
-      <c r="N3" s="74"/>
+      <c r="M3" s="74"/>
+      <c r="N3" s="75"/>
     </row>
     <row r="4" spans="1:65" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
@@ -36835,138 +36493,138 @@
     <mergeCell ref="L3:N3"/>
   </mergeCells>
   <conditionalFormatting sqref="A145:G149 C3:G144">
-    <cfRule type="expression" dxfId="223" priority="5">
+    <cfRule type="expression" dxfId="112" priority="5">
       <formula>#REF!&gt;#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="222" priority="6">
+    <cfRule type="expression" dxfId="111" priority="6">
       <formula>#REF!&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="221" priority="7">
+    <cfRule type="expression" dxfId="110" priority="7">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:B6">
-    <cfRule type="expression" dxfId="220" priority="3">
+    <cfRule type="expression" dxfId="109" priority="3">
       <formula>$P3&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="219" priority="4">
+    <cfRule type="expression" dxfId="108" priority="4">
       <formula>$O3&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:G144">
-    <cfRule type="expression" dxfId="218" priority="1">
+    <cfRule type="expression" dxfId="107" priority="1">
       <formula>NOT(ISBLANK($G3))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A113:B115 A26:B40 A99:B102 A44:B44 A48:B50 A56:B58 A62:B95">
-    <cfRule type="expression" dxfId="217" priority="8">
+    <cfRule type="expression" dxfId="106" priority="8">
       <formula>$P29&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="216" priority="9">
+    <cfRule type="expression" dxfId="105" priority="9">
       <formula>$O29&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A42:B43 A97:B98 A7:B11 A14:B25 A52:B55 A60:B61">
-    <cfRule type="expression" dxfId="215" priority="11">
+    <cfRule type="expression" dxfId="104" priority="11">
       <formula>$P9&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="214" priority="12">
+    <cfRule type="expression" dxfId="103" priority="12">
       <formula>$O9&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A103:B111 A116:B119">
-    <cfRule type="expression" dxfId="213" priority="14">
+    <cfRule type="expression" dxfId="102" priority="14">
       <formula>$P107&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="212" priority="15">
+    <cfRule type="expression" dxfId="101" priority="15">
       <formula>$O107&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A120:B122">
-    <cfRule type="expression" dxfId="211" priority="17">
+    <cfRule type="expression" dxfId="100" priority="17">
       <formula>$P126&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="210" priority="18">
+    <cfRule type="expression" dxfId="99" priority="18">
       <formula>$O126&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A123:B123">
-    <cfRule type="expression" dxfId="209" priority="20">
+    <cfRule type="expression" dxfId="98" priority="20">
       <formula>$P130&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="208" priority="21">
+    <cfRule type="expression" dxfId="97" priority="21">
       <formula>$O130&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A124:B124">
-    <cfRule type="expression" dxfId="207" priority="23">
+    <cfRule type="expression" dxfId="96" priority="23">
       <formula>$P132&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="206" priority="24">
+    <cfRule type="expression" dxfId="95" priority="24">
       <formula>$O132&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A126:B144">
-    <cfRule type="expression" dxfId="205" priority="26">
+    <cfRule type="expression" dxfId="94" priority="26">
       <formula>$P136&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="204" priority="27">
+    <cfRule type="expression" dxfId="93" priority="27">
       <formula>$O136&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A112:B112">
-    <cfRule type="expression" dxfId="203" priority="29">
+    <cfRule type="expression" dxfId="92" priority="29">
       <formula>#REF!&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="202" priority="30">
+    <cfRule type="expression" dxfId="91" priority="30">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A125:B125">
-    <cfRule type="expression" dxfId="201" priority="33">
+    <cfRule type="expression" dxfId="90" priority="33">
       <formula>$P134&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="200" priority="34">
+    <cfRule type="expression" dxfId="89" priority="34">
       <formula>$O134&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A41:B41 A96:B96">
-    <cfRule type="expression" dxfId="199" priority="36">
+    <cfRule type="expression" dxfId="88" priority="36">
       <formula>#REF!&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="198" priority="37">
+    <cfRule type="expression" dxfId="87" priority="37">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A47:B47 A13:B13">
-    <cfRule type="expression" dxfId="197" priority="39">
+    <cfRule type="expression" dxfId="86" priority="39">
       <formula>$P14&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="196" priority="40">
+    <cfRule type="expression" dxfId="85" priority="40">
       <formula>$O14&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A45:B46">
-    <cfRule type="expression" dxfId="195" priority="41">
+    <cfRule type="expression" dxfId="84" priority="41">
       <formula>#REF!&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="194" priority="42">
+    <cfRule type="expression" dxfId="83" priority="42">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12:B12">
-    <cfRule type="expression" dxfId="193" priority="319">
+    <cfRule type="expression" dxfId="82" priority="319">
       <formula>#REF!&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="192" priority="320">
+    <cfRule type="expression" dxfId="81" priority="320">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A51:B51 A59:B59">
-    <cfRule type="expression" dxfId="191" priority="341">
+    <cfRule type="expression" dxfId="80" priority="341">
       <formula>#REF!&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="190" priority="342">
+    <cfRule type="expression" dxfId="79" priority="342">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -37228,15 +36886,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:65" ht="57.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="72" t="str">
+      <c r="A1" s="73" t="str">
         <f>"Eagle P3 System Performance - "&amp;TEXT(J3,"YYYY-MM-DD")</f>
         <v>Eagle P3 System Performance - 2016-05-19</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
     </row>
     <row r="2" spans="1:65" s="5" customFormat="1" ht="69" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
@@ -37345,11 +37003,11 @@
         <v>42509</v>
       </c>
       <c r="K3" s="21"/>
-      <c r="L3" s="73" t="s">
+      <c r="L3" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="M3" s="73"/>
-      <c r="N3" s="74"/>
+      <c r="M3" s="74"/>
+      <c r="N3" s="75"/>
     </row>
     <row r="4" spans="1:65" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
@@ -40304,7 +39962,7 @@
         <v>42509.983726851853</v>
       </c>
       <c r="E127" s="15" t="str">
-        <f t="shared" ref="E127:E134" si="5">IF(ISEVEN(B127),(B127-1)&amp;"/"&amp;B127,B127&amp;"/"&amp;(B127+1))</f>
+        <f t="shared" ref="E127:E130" si="5">IF(ISEVEN(B127),(B127-1)&amp;"/"&amp;B127,B127&amp;"/"&amp;(B127+1))</f>
         <v>4041/4042</v>
       </c>
       <c r="F127" s="15">
@@ -40629,146 +40287,146 @@
     <mergeCell ref="L3:N3"/>
   </mergeCells>
   <conditionalFormatting sqref="A140:G144 C3:G139">
-    <cfRule type="expression" dxfId="172" priority="5">
+    <cfRule type="expression" dxfId="61" priority="5">
       <formula>#REF!&gt;#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="171" priority="6">
+    <cfRule type="expression" dxfId="60" priority="6">
       <formula>#REF!&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="170" priority="7">
+    <cfRule type="expression" dxfId="59" priority="7">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:B6">
-    <cfRule type="expression" dxfId="169" priority="3">
+    <cfRule type="expression" dxfId="58" priority="3">
       <formula>$P3&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="168" priority="4">
+    <cfRule type="expression" dxfId="57" priority="4">
       <formula>$O3&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:G139">
-    <cfRule type="expression" dxfId="167" priority="1">
+    <cfRule type="expression" dxfId="56" priority="1">
       <formula>NOT(ISBLANK($G3))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A108:B110 A26:B40 A44:B44 A48:B50 A56:B58 A62:B63 A67:B68 A74:B79 A83:B91 A95:B95">
-    <cfRule type="expression" dxfId="166" priority="8">
+    <cfRule type="expression" dxfId="55" priority="8">
       <formula>$P29&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="165" priority="9">
+    <cfRule type="expression" dxfId="54" priority="9">
       <formula>$O29&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A42:B43 A93:B94 A7:B11 A14:B25 A52:B55 A60:B61 A65:B66 A70:B73 A81:B82 A97:B98">
-    <cfRule type="expression" dxfId="164" priority="11">
+    <cfRule type="expression" dxfId="53" priority="11">
       <formula>$P9&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="163" priority="12">
+    <cfRule type="expression" dxfId="52" priority="12">
       <formula>$O9&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A111:B114 A99:B106">
-    <cfRule type="expression" dxfId="162" priority="14">
+    <cfRule type="expression" dxfId="51" priority="14">
       <formula>$P103&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="161" priority="15">
+    <cfRule type="expression" dxfId="50" priority="15">
       <formula>$O103&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A115:B117">
-    <cfRule type="expression" dxfId="160" priority="17">
+    <cfRule type="expression" dxfId="49" priority="17">
       <formula>$P121&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="159" priority="18">
+    <cfRule type="expression" dxfId="48" priority="18">
       <formula>$O121&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A118:B118">
-    <cfRule type="expression" dxfId="158" priority="20">
+    <cfRule type="expression" dxfId="47" priority="20">
       <formula>$P125&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="157" priority="21">
+    <cfRule type="expression" dxfId="46" priority="21">
       <formula>$O125&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A119:B119">
-    <cfRule type="expression" dxfId="156" priority="23">
+    <cfRule type="expression" dxfId="45" priority="23">
       <formula>$P127&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="155" priority="24">
+    <cfRule type="expression" dxfId="44" priority="24">
       <formula>$O127&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A121:B139">
-    <cfRule type="expression" dxfId="154" priority="26">
+    <cfRule type="expression" dxfId="43" priority="26">
       <formula>$P131&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="153" priority="27">
+    <cfRule type="expression" dxfId="42" priority="27">
       <formula>$O131&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A107:B107">
-    <cfRule type="expression" dxfId="152" priority="29">
+    <cfRule type="expression" dxfId="41" priority="29">
       <formula>#REF!&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="151" priority="30">
+    <cfRule type="expression" dxfId="40" priority="30">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A120:B120">
-    <cfRule type="expression" dxfId="150" priority="33">
+    <cfRule type="expression" dxfId="39" priority="33">
       <formula>$P129&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="149" priority="34">
+    <cfRule type="expression" dxfId="38" priority="34">
       <formula>$O129&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A41:B41 A92:B92">
-    <cfRule type="expression" dxfId="148" priority="36">
+    <cfRule type="expression" dxfId="37" priority="36">
       <formula>#REF!&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="147" priority="37">
+    <cfRule type="expression" dxfId="36" priority="37">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A47:B47 A13:B13">
-    <cfRule type="expression" dxfId="146" priority="39">
+    <cfRule type="expression" dxfId="35" priority="39">
       <formula>$P14&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="145" priority="40">
+    <cfRule type="expression" dxfId="34" priority="40">
       <formula>$O14&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A45:B46">
-    <cfRule type="expression" dxfId="144" priority="41">
+    <cfRule type="expression" dxfId="33" priority="41">
       <formula>#REF!&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="143" priority="42">
+    <cfRule type="expression" dxfId="32" priority="42">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12:B12">
-    <cfRule type="expression" dxfId="142" priority="45">
+    <cfRule type="expression" dxfId="31" priority="45">
       <formula>#REF!&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="141" priority="46">
+    <cfRule type="expression" dxfId="30" priority="46">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A51:B51 A59:B59">
-    <cfRule type="expression" dxfId="140" priority="48">
+    <cfRule type="expression" dxfId="29" priority="48">
       <formula>#REF!&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="139" priority="49">
+    <cfRule type="expression" dxfId="28" priority="49">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A64:B64 A69:B69 A80:B80 A96:B96">
-    <cfRule type="expression" dxfId="121" priority="363">
+    <cfRule type="expression" dxfId="27" priority="363">
       <formula>#REF!&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="120" priority="364">
+    <cfRule type="expression" dxfId="26" priority="364">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -42651,354 +42309,354 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D2:H13">
-    <cfRule type="expression" dxfId="118" priority="114">
+    <cfRule type="expression" dxfId="436" priority="114">
       <formula>#REF!&gt;#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="117" priority="115">
+    <cfRule type="expression" dxfId="435" priority="115">
       <formula>#REF!&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="116" priority="116">
+    <cfRule type="expression" dxfId="434" priority="116">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:H13">
-    <cfRule type="expression" dxfId="115" priority="113">
+    <cfRule type="expression" dxfId="433" priority="113">
       <formula>NOT(ISBLANK($G2))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12:C12 B4:C4 B2:C2">
-    <cfRule type="expression" dxfId="114" priority="117">
+    <cfRule type="expression" dxfId="432" priority="117">
       <formula>$P5&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="113" priority="118">
+    <cfRule type="expression" dxfId="431" priority="118">
       <formula>$O5&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:C3">
-    <cfRule type="expression" dxfId="111" priority="110">
+    <cfRule type="expression" dxfId="430" priority="110">
       <formula>#REF!&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="110" priority="111">
+    <cfRule type="expression" dxfId="429" priority="111">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:C10">
-    <cfRule type="expression" dxfId="108" priority="107">
+    <cfRule type="expression" dxfId="428" priority="107">
       <formula>$P7&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="107" priority="108">
+    <cfRule type="expression" dxfId="427" priority="108">
       <formula>$O7&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:C11">
-    <cfRule type="expression" dxfId="105" priority="104">
+    <cfRule type="expression" dxfId="426" priority="104">
       <formula>$P15&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="104" priority="105">
+    <cfRule type="expression" dxfId="425" priority="105">
       <formula>$O15&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13:C13">
-    <cfRule type="expression" dxfId="101" priority="100">
+    <cfRule type="expression" dxfId="424" priority="100">
       <formula>$P19&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="100" priority="101">
+    <cfRule type="expression" dxfId="423" priority="101">
       <formula>$O19&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14:H19">
-    <cfRule type="expression" dxfId="98" priority="94">
+    <cfRule type="expression" dxfId="422" priority="94">
       <formula>#REF!&gt;#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="97" priority="95">
+    <cfRule type="expression" dxfId="421" priority="95">
       <formula>#REF!&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="96" priority="96">
+    <cfRule type="expression" dxfId="420" priority="96">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14:H19">
-    <cfRule type="expression" dxfId="95" priority="93">
+    <cfRule type="expression" dxfId="419" priority="93">
       <formula>NOT(ISBLANK($G14))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14:C14">
-    <cfRule type="expression" dxfId="94" priority="97">
+    <cfRule type="expression" dxfId="418" priority="97">
       <formula>$P15&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="93" priority="98">
+    <cfRule type="expression" dxfId="417" priority="98">
       <formula>$O15&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B15:C15">
-    <cfRule type="expression" dxfId="91" priority="90">
+    <cfRule type="expression" dxfId="416" priority="90">
       <formula>#REF!&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="90" priority="91">
+    <cfRule type="expression" dxfId="415" priority="91">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19:C19 B16:C17">
-    <cfRule type="expression" dxfId="88" priority="87">
+    <cfRule type="expression" dxfId="414" priority="87">
       <formula>$P18&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="87" priority="88">
+    <cfRule type="expression" dxfId="413" priority="88">
       <formula>$O18&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18:C18">
-    <cfRule type="expression" dxfId="85" priority="84">
+    <cfRule type="expression" dxfId="412" priority="84">
       <formula>$P21&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="84" priority="85">
+    <cfRule type="expression" dxfId="411" priority="85">
       <formula>$O21&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D20:H27">
-    <cfRule type="expression" dxfId="82" priority="81">
+    <cfRule type="expression" dxfId="410" priority="81">
       <formula>#REF!&gt;#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="81" priority="82">
+    <cfRule type="expression" dxfId="409" priority="82">
       <formula>#REF!&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="80" priority="83">
+    <cfRule type="expression" dxfId="408" priority="83">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20:C21">
-    <cfRule type="expression" dxfId="79" priority="79">
+    <cfRule type="expression" dxfId="407" priority="79">
       <formula>$P20&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="78" priority="80">
+    <cfRule type="expression" dxfId="406" priority="80">
       <formula>$O20&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20:H27">
-    <cfRule type="expression" dxfId="77" priority="77">
+    <cfRule type="expression" dxfId="405" priority="77">
       <formula>NOT(ISBLANK($G20))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24:C25 B22:C22">
-    <cfRule type="expression" dxfId="75" priority="74">
+    <cfRule type="expression" dxfId="404" priority="74">
       <formula>$P25&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="74" priority="75">
+    <cfRule type="expression" dxfId="403" priority="75">
       <formula>$O25&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B26:C26 B23:C23">
-    <cfRule type="expression" dxfId="72" priority="71">
+    <cfRule type="expression" dxfId="402" priority="71">
       <formula>$P25&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="71" priority="72">
+    <cfRule type="expression" dxfId="401" priority="72">
       <formula>$O25&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27:C27">
-    <cfRule type="expression" dxfId="69" priority="68">
+    <cfRule type="expression" dxfId="400" priority="68">
       <formula>$P37&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="68" priority="69">
+    <cfRule type="expression" dxfId="399" priority="69">
       <formula>$O37&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28:H33">
-    <cfRule type="expression" dxfId="66" priority="62">
+    <cfRule type="expression" dxfId="398" priority="62">
       <formula>#REF!&gt;#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="65" priority="63">
+    <cfRule type="expression" dxfId="397" priority="63">
       <formula>#REF!&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="64" priority="64">
+    <cfRule type="expression" dxfId="396" priority="64">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:H33">
-    <cfRule type="expression" dxfId="63" priority="61">
+    <cfRule type="expression" dxfId="395" priority="61">
       <formula>NOT(ISBLANK($G28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:C28">
-    <cfRule type="expression" dxfId="62" priority="65">
+    <cfRule type="expression" dxfId="394" priority="65">
       <formula>$P31&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="61" priority="66">
+    <cfRule type="expression" dxfId="393" priority="66">
       <formula>$O31&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B29:C29">
-    <cfRule type="expression" dxfId="59" priority="58">
+    <cfRule type="expression" dxfId="392" priority="58">
       <formula>$P33&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="59">
+    <cfRule type="expression" dxfId="391" priority="59">
       <formula>$O33&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B30:C30">
-    <cfRule type="expression" dxfId="56" priority="55">
+    <cfRule type="expression" dxfId="390" priority="55">
       <formula>$P36&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="55" priority="56">
+    <cfRule type="expression" dxfId="389" priority="56">
       <formula>$O36&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B31:C31">
-    <cfRule type="expression" dxfId="53" priority="46">
+    <cfRule type="expression" dxfId="388" priority="46">
       <formula>$P39&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="47">
+    <cfRule type="expression" dxfId="387" priority="47">
       <formula>$O39&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B33:C33">
-    <cfRule type="expression" dxfId="51" priority="49">
+    <cfRule type="expression" dxfId="386" priority="49">
       <formula>$P43&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="50" priority="50">
+    <cfRule type="expression" dxfId="385" priority="50">
       <formula>$O43&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32:C32">
-    <cfRule type="expression" dxfId="49" priority="52">
+    <cfRule type="expression" dxfId="384" priority="52">
       <formula>$P41&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="53">
+    <cfRule type="expression" dxfId="383" priority="53">
       <formula>$O41&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D34:H44">
-    <cfRule type="expression" dxfId="44" priority="40">
+    <cfRule type="expression" dxfId="382" priority="40">
       <formula>#REF!&gt;#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="41">
+    <cfRule type="expression" dxfId="381" priority="41">
       <formula>#REF!&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="42">
+    <cfRule type="expression" dxfId="380" priority="42">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B34:C34">
-    <cfRule type="expression" dxfId="41" priority="38">
+    <cfRule type="expression" dxfId="379" priority="38">
       <formula>$P34&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="39">
+    <cfRule type="expression" dxfId="378" priority="39">
       <formula>$O34&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B34:H44">
-    <cfRule type="expression" dxfId="39" priority="36">
+    <cfRule type="expression" dxfId="377" priority="36">
       <formula>NOT(ISBLANK($G34))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B35:C37">
-    <cfRule type="expression" dxfId="38" priority="43">
+    <cfRule type="expression" dxfId="376" priority="43">
       <formula>$P37&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="44">
+    <cfRule type="expression" dxfId="375" priority="44">
       <formula>$O37&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B38:C39">
-    <cfRule type="expression" dxfId="34" priority="33">
+    <cfRule type="expression" dxfId="374" priority="33">
       <formula>$P41&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="34">
+    <cfRule type="expression" dxfId="373" priority="34">
       <formula>$O41&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B40:C40">
-    <cfRule type="expression" dxfId="31" priority="30">
+    <cfRule type="expression" dxfId="372" priority="30">
       <formula>$P44&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="31">
+    <cfRule type="expression" dxfId="371" priority="31">
       <formula>$O44&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B41:C42">
-    <cfRule type="expression" dxfId="28" priority="21">
+    <cfRule type="expression" dxfId="370" priority="21">
       <formula>$P48&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="22">
+    <cfRule type="expression" dxfId="369" priority="22">
       <formula>$O48&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B43:C43">
-    <cfRule type="expression" dxfId="26" priority="24">
+    <cfRule type="expression" dxfId="368" priority="24">
       <formula>$P51&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="25">
+    <cfRule type="expression" dxfId="367" priority="25">
       <formula>$O51&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B44:C44">
-    <cfRule type="expression" dxfId="24" priority="27">
+    <cfRule type="expression" dxfId="366" priority="27">
       <formula>$P53&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="23" priority="28">
+    <cfRule type="expression" dxfId="365" priority="28">
       <formula>$O53&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D45:H46">
-    <cfRule type="expression" dxfId="19" priority="18">
+    <cfRule type="expression" dxfId="364" priority="18">
       <formula>#REF!&gt;#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="19">
+    <cfRule type="expression" dxfId="363" priority="19">
       <formula>#REF!&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="20">
+    <cfRule type="expression" dxfId="362" priority="20">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B45:C46">
-    <cfRule type="expression" dxfId="16" priority="16">
+    <cfRule type="expression" dxfId="361" priority="16">
       <formula>$P45&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="17">
+    <cfRule type="expression" dxfId="360" priority="17">
       <formula>$O45&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B45:H46">
-    <cfRule type="expression" dxfId="14" priority="14">
+    <cfRule type="expression" dxfId="359" priority="14">
       <formula>NOT(ISBLANK($G45))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D47:H62">
-    <cfRule type="expression" dxfId="12" priority="8">
+    <cfRule type="expression" dxfId="358" priority="8">
       <formula>#REF!&gt;#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="9">
+    <cfRule type="expression" dxfId="357" priority="9">
       <formula>#REF!&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="10">
+    <cfRule type="expression" dxfId="356" priority="10">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B47:H62">
-    <cfRule type="expression" dxfId="9" priority="7">
+    <cfRule type="expression" dxfId="355" priority="7">
       <formula>NOT(ISBLANK($G47))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B57:C58 B55:C55 B52:C53 B47:C48">
-    <cfRule type="expression" dxfId="8" priority="11">
+    <cfRule type="expression" dxfId="354" priority="11">
       <formula>$P48&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="12">
+    <cfRule type="expression" dxfId="353" priority="12">
       <formula>$O48&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B61:C62 B56:C56 B54:C54 B49:C51">
-    <cfRule type="expression" dxfId="5" priority="4">
+    <cfRule type="expression" dxfId="352" priority="4">
       <formula>$P51&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="5">
+    <cfRule type="expression" dxfId="351" priority="5">
       <formula>$O51&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B59:C60">
-    <cfRule type="expression" dxfId="2" priority="1">
+    <cfRule type="expression" dxfId="350" priority="1">
       <formula>#REF!&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="349" priority="2">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -43579,11 +43237,11 @@
         <v>42496</v>
       </c>
       <c r="C20" s="40"/>
-      <c r="D20" s="70" t="s">
+      <c r="D20" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="E20" s="70"/>
-      <c r="F20" s="71"/>
+      <c r="E20" s="71"/>
+      <c r="F20" s="72"/>
     </row>
     <row r="21" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="28"/>
@@ -43711,11 +43369,11 @@
         <v>42497</v>
       </c>
       <c r="C28" s="40"/>
-      <c r="D28" s="70" t="s">
+      <c r="D28" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="E28" s="70"/>
-      <c r="F28" s="71"/>
+      <c r="E28" s="71"/>
+      <c r="F28" s="72"/>
     </row>
     <row r="29" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="28"/>
@@ -43843,11 +43501,11 @@
         <v>42498</v>
       </c>
       <c r="C36" s="40"/>
-      <c r="D36" s="70" t="s">
+      <c r="D36" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="E36" s="70"/>
-      <c r="F36" s="71"/>
+      <c r="E36" s="71"/>
+      <c r="F36" s="72"/>
     </row>
     <row r="37" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="28"/>
@@ -43975,11 +43633,11 @@
         <v>42499</v>
       </c>
       <c r="C44" s="40"/>
-      <c r="D44" s="70" t="s">
+      <c r="D44" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="E44" s="70"/>
-      <c r="F44" s="71"/>
+      <c r="E44" s="71"/>
+      <c r="F44" s="72"/>
     </row>
     <row r="45" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B45" s="28"/>
@@ -44107,11 +43765,11 @@
         <v>42500</v>
       </c>
       <c r="C52" s="40"/>
-      <c r="D52" s="70" t="s">
+      <c r="D52" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="E52" s="70"/>
-      <c r="F52" s="71"/>
+      <c r="E52" s="71"/>
+      <c r="F52" s="72"/>
     </row>
     <row r="53" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B53" s="28"/>
@@ -45466,14 +45124,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:65" ht="57.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="73" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
     </row>
     <row r="2" spans="1:65" s="5" customFormat="1" ht="69" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
@@ -45580,11 +45238,11 @@
         <v>42496</v>
       </c>
       <c r="K3" s="21"/>
-      <c r="L3" s="73" t="s">
+      <c r="L3" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="M3" s="73"/>
-      <c r="N3" s="74"/>
+      <c r="M3" s="74"/>
+      <c r="N3" s="75"/>
     </row>
     <row r="4" spans="1:65" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
@@ -48993,56 +48651,56 @@
     <mergeCell ref="L3:N3"/>
   </mergeCells>
   <conditionalFormatting sqref="A151:G175 C149:G150">
-    <cfRule type="expression" dxfId="428" priority="28">
+    <cfRule type="expression" dxfId="317" priority="28">
       <formula>#REF!&gt;#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="427" priority="29">
+    <cfRule type="expression" dxfId="316" priority="29">
       <formula>#REF!&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="426" priority="30">
+    <cfRule type="expression" dxfId="315" priority="30">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A149:B150">
-    <cfRule type="expression" dxfId="425" priority="26">
+    <cfRule type="expression" dxfId="314" priority="26">
       <formula>$P149&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="424" priority="27">
+    <cfRule type="expression" dxfId="313" priority="27">
       <formula>$O149&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:G148">
-    <cfRule type="expression" dxfId="423" priority="10">
+    <cfRule type="expression" dxfId="312" priority="10">
       <formula>#REF!&gt;#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="422" priority="11">
+    <cfRule type="expression" dxfId="311" priority="11">
       <formula>#REF!&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="421" priority="12">
+    <cfRule type="expression" dxfId="310" priority="12">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:B148">
-    <cfRule type="expression" dxfId="420" priority="8">
+    <cfRule type="expression" dxfId="309" priority="8">
       <formula>$P3&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="419" priority="9">
+    <cfRule type="expression" dxfId="308" priority="9">
       <formula>$O3&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:C148">
-    <cfRule type="expression" dxfId="418" priority="5">
+    <cfRule type="expression" dxfId="307" priority="5">
       <formula>$P3&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="417" priority="6">
+    <cfRule type="expression" dxfId="306" priority="6">
       <formula>$O3&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D148">
-    <cfRule type="expression" dxfId="416" priority="2">
+    <cfRule type="expression" dxfId="305" priority="2">
       <formula>$P3&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="415" priority="3">
+    <cfRule type="expression" dxfId="304" priority="3">
       <formula>$O3&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -49135,14 +48793,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:65" ht="57.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
     </row>
     <row r="2" spans="1:65" s="5" customFormat="1" ht="69" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
@@ -49251,11 +48909,11 @@
         <v>42497</v>
       </c>
       <c r="K3" s="21"/>
-      <c r="L3" s="73" t="s">
+      <c r="L3" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="M3" s="73"/>
-      <c r="N3" s="74"/>
+      <c r="M3" s="74"/>
+      <c r="N3" s="75"/>
     </row>
     <row r="4" spans="1:65" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
@@ -52478,21 +52136,21 @@
     <mergeCell ref="L3:N3"/>
   </mergeCells>
   <conditionalFormatting sqref="C3:G149">
-    <cfRule type="expression" dxfId="410" priority="4">
+    <cfRule type="expression" dxfId="299" priority="4">
       <formula>#REF!&gt;#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="409" priority="5">
+    <cfRule type="expression" dxfId="298" priority="5">
       <formula>#REF!&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="408" priority="6">
+    <cfRule type="expression" dxfId="297" priority="6">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:B149">
-    <cfRule type="expression" dxfId="407" priority="2">
+    <cfRule type="expression" dxfId="296" priority="2">
       <formula>$P3&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="406" priority="3">
+    <cfRule type="expression" dxfId="295" priority="3">
       <formula>$O3&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -52546,15 +52204,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:65" ht="57.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="72" t="str">
+      <c r="A1" s="73" t="str">
         <f>"Eagle P3 System Performance - "&amp;TEXT(J3,"YYYY-MM-DD")</f>
         <v>Eagle P3 System Performance - 2016-05-08</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
     </row>
     <row r="2" spans="1:65" s="5" customFormat="1" ht="69" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
@@ -52663,11 +52321,11 @@
         <v>42498</v>
       </c>
       <c r="K3" s="21"/>
-      <c r="L3" s="73" t="s">
+      <c r="L3" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="M3" s="73"/>
-      <c r="N3" s="74"/>
+      <c r="M3" s="74"/>
+      <c r="N3" s="75"/>
     </row>
     <row r="4" spans="1:65" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
@@ -56088,26 +55746,26 @@
     <mergeCell ref="L3:N3"/>
   </mergeCells>
   <conditionalFormatting sqref="A148:G176 C3:G147">
-    <cfRule type="expression" dxfId="404" priority="5">
+    <cfRule type="expression" dxfId="293" priority="5">
       <formula>#REF!&gt;#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="403" priority="6">
+    <cfRule type="expression" dxfId="292" priority="6">
       <formula>#REF!&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="402" priority="7">
+    <cfRule type="expression" dxfId="291" priority="7">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:B147">
-    <cfRule type="expression" dxfId="401" priority="3">
+    <cfRule type="expression" dxfId="290" priority="3">
       <formula>$P3&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="400" priority="4">
+    <cfRule type="expression" dxfId="289" priority="4">
       <formula>$O3&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:G147">
-    <cfRule type="expression" dxfId="399" priority="1">
+    <cfRule type="expression" dxfId="288" priority="1">
       <formula>NOT(ISBLANK($G3))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -56161,15 +55819,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:65" ht="57.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="72" t="str">
+      <c r="A1" s="73" t="str">
         <f>"Eagle P3 System Performance - "&amp;TEXT(J3,"YYYY-MM-DD")</f>
         <v>Eagle P3 System Performance - 2016-05-09</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
     </row>
     <row r="2" spans="1:65" s="5" customFormat="1" ht="69" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
@@ -56278,11 +55936,11 @@
         <v>42499</v>
       </c>
       <c r="K3" s="21"/>
-      <c r="L3" s="73" t="s">
+      <c r="L3" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="M3" s="73"/>
-      <c r="N3" s="74"/>
+      <c r="M3" s="74"/>
+      <c r="N3" s="75"/>
     </row>
     <row r="4" spans="1:65" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
@@ -59657,42 +59315,42 @@
     <mergeCell ref="L3:N3"/>
   </mergeCells>
   <conditionalFormatting sqref="A146:G174 C3:G145">
-    <cfRule type="expression" dxfId="397" priority="16">
+    <cfRule type="expression" dxfId="286" priority="16">
       <formula>#REF!&gt;#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="396" priority="17">
+    <cfRule type="expression" dxfId="285" priority="17">
       <formula>#REF!&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="395" priority="18">
+    <cfRule type="expression" dxfId="284" priority="18">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:B86 A88:B145 B87">
-    <cfRule type="expression" dxfId="394" priority="14">
+    <cfRule type="expression" dxfId="283" priority="14">
       <formula>$P3&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="393" priority="15">
+    <cfRule type="expression" dxfId="282" priority="15">
       <formula>$O3&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:G86 A88:G145 B87:G87">
-    <cfRule type="expression" dxfId="392" priority="12">
+    <cfRule type="expression" dxfId="281" priority="12">
       <formula>NOT(ISBLANK($G3))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A87">
-    <cfRule type="expression" dxfId="391" priority="6">
+    <cfRule type="expression" dxfId="280" priority="6">
       <formula>#REF!&gt;#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="390" priority="7">
+    <cfRule type="expression" dxfId="279" priority="7">
       <formula>#REF!&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="389" priority="8">
+    <cfRule type="expression" dxfId="278" priority="8">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A87">
-    <cfRule type="expression" dxfId="388" priority="5">
+    <cfRule type="expression" dxfId="277" priority="5">
       <formula>NOT(ISBLANK($G87))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -59746,15 +59404,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:65" ht="57.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="72" t="str">
+      <c r="A1" s="73" t="str">
         <f>"Eagle P3 System Performance - "&amp;TEXT(J3,"YYYY-MM-DD")</f>
         <v>Eagle P3 System Performance - 2016-05-10</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
     </row>
     <row r="2" spans="1:65" s="5" customFormat="1" ht="69" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
@@ -59863,11 +59521,11 @@
         <v>42500</v>
       </c>
       <c r="K3" s="21"/>
-      <c r="L3" s="73" t="s">
+      <c r="L3" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="M3" s="73"/>
-      <c r="N3" s="74"/>
+      <c r="M3" s="74"/>
+      <c r="N3" s="75"/>
     </row>
     <row r="4" spans="1:65" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
@@ -63218,42 +62876,42 @@
     <mergeCell ref="L3:N3"/>
   </mergeCells>
   <conditionalFormatting sqref="A145:G172 C3:D144 F3:G144">
-    <cfRule type="expression" dxfId="386" priority="12">
+    <cfRule type="expression" dxfId="275" priority="12">
       <formula>#REF!&gt;#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="385" priority="13">
+    <cfRule type="expression" dxfId="274" priority="13">
       <formula>#REF!&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="384" priority="14">
+    <cfRule type="expression" dxfId="273" priority="14">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B85 A86:B144 A3:B84 E3:E144">
-    <cfRule type="expression" dxfId="383" priority="10">
+    <cfRule type="expression" dxfId="272" priority="10">
       <formula>$P3&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="382" priority="11">
+    <cfRule type="expression" dxfId="271" priority="11">
       <formula>$O3&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B85:D85 A86:D144 A3:D84 F3:G144">
-    <cfRule type="expression" dxfId="381" priority="8">
+    <cfRule type="expression" dxfId="270" priority="8">
       <formula>NOT(ISBLANK($G3))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A85">
-    <cfRule type="expression" dxfId="380" priority="5">
+    <cfRule type="expression" dxfId="269" priority="5">
       <formula>#REF!&gt;#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="379" priority="6">
+    <cfRule type="expression" dxfId="268" priority="6">
       <formula>#REF!&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="378" priority="7">
+    <cfRule type="expression" dxfId="267" priority="7">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A85">
-    <cfRule type="expression" dxfId="377" priority="4">
+    <cfRule type="expression" dxfId="266" priority="4">
       <formula>NOT(ISBLANK($G85))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -63320,15 +62978,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:65" ht="57.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="72" t="str">
+      <c r="A1" s="73" t="str">
         <f>"Eagle P3 System Performance - "&amp;TEXT(J3,"YYYY-MM-DD")</f>
         <v>Eagle P3 System Performance - 2016-05-11</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
     </row>
     <row r="2" spans="1:65" s="5" customFormat="1" ht="69" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
@@ -63437,11 +63095,11 @@
         <v>42501</v>
       </c>
       <c r="K3" s="21"/>
-      <c r="L3" s="73" t="s">
+      <c r="L3" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="M3" s="73"/>
-      <c r="N3" s="74"/>
+      <c r="M3" s="74"/>
+      <c r="N3" s="75"/>
     </row>
     <row r="4" spans="1:65" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
@@ -66797,26 +66455,26 @@
     <mergeCell ref="L3:N3"/>
   </mergeCells>
   <conditionalFormatting sqref="A147:G171 D3:D146 F3:G146">
-    <cfRule type="expression" dxfId="374" priority="16">
+    <cfRule type="expression" dxfId="263" priority="16">
       <formula>#REF!&gt;#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="373" priority="17">
+    <cfRule type="expression" dxfId="262" priority="17">
       <formula>#REF!&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="372" priority="18">
+    <cfRule type="expression" dxfId="261" priority="18">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E146 A3:C146">
-    <cfRule type="expression" dxfId="371" priority="14">
+    <cfRule type="expression" dxfId="260" priority="14">
       <formula>$P3&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="370" priority="15">
+    <cfRule type="expression" dxfId="259" priority="15">
       <formula>$O3&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F144:F146 D3:D143 F3:G143">
-    <cfRule type="expression" dxfId="369" priority="12">
+    <cfRule type="expression" dxfId="258" priority="12">
       <formula>NOT(ISBLANK($G3))</formula>
     </cfRule>
   </conditionalFormatting>
